--- a/ConceptMap-R5-TestPlan-elements-for-R4.xlsx
+++ b/ConceptMap-R5-TestPlan-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="169">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.6755985-06:00</t>
+    <t>2026-02-09T22:05:44.296035-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -345,18 +345,12 @@
     <t>dependency</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:dependency</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency</t>
   </si>
   <si>
     <t>TestPlan.dependency.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:dependency:description</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:description</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>predecessor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:dependency:predecessor</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:predecessor</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>testCase</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase</t>
   </si>
   <si>
@@ -399,45 +387,30 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:sequence</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:sequence</t>
   </si>
   <si>
     <t>TestPlan.testCase.scope</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:scope</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:scope</t>
   </si>
   <si>
     <t>TestPlan.testCase.dependency</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:dependency</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency</t>
   </si>
   <si>
     <t>TestPlan.testCase.dependency.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:dependency:description</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:description</t>
   </si>
   <si>
     <t>TestPlan.testCase.dependency.predecessor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:dependency:predecessor</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:predecessor</t>
   </si>
   <si>
@@ -447,9 +420,6 @@
     <t>testRun</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testRun</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun</t>
   </si>
   <si>
@@ -459,9 +429,6 @@
     <t>narrative</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testRun:narrative</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:narrative</t>
   </si>
   <si>
@@ -471,18 +438,12 @@
     <t>script</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testRun:script</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script</t>
   </si>
   <si>
     <t>TestPlan.testCase.testRun.script.language</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testRun:script:language</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:language</t>
   </si>
   <si>
@@ -492,9 +453,6 @@
     <t>source[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testRun:script:source</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:source</t>
   </si>
   <si>
@@ -504,9 +462,6 @@
     <t>testData</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testData</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData</t>
   </si>
   <si>
@@ -516,9 +471,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testData:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:type</t>
   </si>
   <si>
@@ -528,18 +480,12 @@
     <t>content</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testData:content</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:content</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData.source[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:testData:source</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:source</t>
   </si>
   <si>
@@ -549,18 +495,12 @@
     <t>assertion</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:assertion</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion</t>
   </si>
   <si>
     <t>TestPlan.testCase.assertion.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:assertion:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:type</t>
   </si>
   <si>
@@ -570,9 +510,6 @@
     <t>object</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:assertion:object</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:object</t>
   </si>
   <si>
@@ -580,9 +517,6 @@
   </si>
   <si>
     <t>result</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testCase:assertion:result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:result</t>
@@ -842,7 +776,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1233,575 +1167,289 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="E73" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-TestPlan-elements-for-R4.xlsx
+++ b/ConceptMap-R5-TestPlan-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.296035-06:00</t>
+    <t>2026-02-17T14:42:27.6257154-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:url</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.url</t>
   </si>
   <si>
     <t>TestPlan.identifier</t>
@@ -183,7 +183,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:version</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.version</t>
   </si>
   <si>
     <t>TestPlan.versionAlgorithm[x]</t>
@@ -192,7 +192,7 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:versionAlgorithm</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.versionAlgorithm</t>
   </si>
   <si>
     <t>TestPlan.name</t>
@@ -201,7 +201,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.name</t>
   </si>
   <si>
     <t>TestPlan.title</t>
@@ -210,7 +210,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:title</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.title</t>
   </si>
   <si>
     <t>TestPlan.status</t>
@@ -219,7 +219,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.status</t>
   </si>
   <si>
     <t>TestPlan.experimental</t>
@@ -228,7 +228,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:experimental</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.experimental</t>
   </si>
   <si>
     <t>TestPlan.date</t>
@@ -237,7 +237,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:date</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.date</t>
   </si>
   <si>
     <t>TestPlan.publisher</t>
@@ -246,7 +246,7 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:publisher</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.publisher</t>
   </si>
   <si>
     <t>TestPlan.contact</t>
@@ -255,7 +255,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:contact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.contact</t>
   </si>
   <si>
     <t>TestPlan.description</t>
@@ -264,7 +264,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.description</t>
   </si>
   <si>
     <t>TestPlan.useContext</t>
@@ -273,7 +273,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:useContext</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.useContext</t>
   </si>
   <si>
     <t>TestPlan.jurisdiction</t>
@@ -282,7 +282,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:jurisdiction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.jurisdiction</t>
   </si>
   <si>
     <t>TestPlan.purpose</t>
@@ -291,7 +291,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:purpose</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.purpose</t>
   </si>
   <si>
     <t>TestPlan.copyright</t>
@@ -300,7 +300,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:copyright</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.copyright</t>
   </si>
   <si>
     <t>TestPlan.copyrightLabel</t>
@@ -309,7 +309,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:copyrightLabel</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.copyrightLabel</t>
   </si>
   <si>
     <t>TestPlan.category</t>
@@ -318,7 +318,7 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:category</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.category</t>
   </si>
   <si>
     <t>TestPlan.scope</t>
@@ -327,7 +327,7 @@
     <t>scope</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:scope</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.scope</t>
   </si>
   <si>
     <t>TestPlan.testTools</t>
@@ -336,7 +336,7 @@
     <t>testTools</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:testTools</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testTools</t>
   </si>
   <si>
     <t>TestPlan.dependency</t>
@@ -351,7 +351,7 @@
     <t>TestPlan.dependency.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency.description</t>
   </si>
   <si>
     <t>TestPlan.dependency.predecessor</t>
@@ -360,7 +360,7 @@
     <t>predecessor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:predecessor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency.predecessor</t>
   </si>
   <si>
     <t>TestPlan.exitCriteria</t>
@@ -369,7 +369,7 @@
     <t>exitCriteria</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:exitCriteria</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.exitCriteria</t>
   </si>
   <si>
     <t>TestPlan.testCase</t>
@@ -387,13 +387,13 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:sequence</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.sequence</t>
   </si>
   <si>
     <t>TestPlan.testCase.scope</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:scope</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.scope</t>
   </si>
   <si>
     <t>TestPlan.testCase.dependency</t>
@@ -405,13 +405,13 @@
     <t>TestPlan.testCase.dependency.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency.description</t>
   </si>
   <si>
     <t>TestPlan.testCase.dependency.predecessor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:predecessor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency.predecessor</t>
   </si>
   <si>
     <t>TestPlan.testCase.testRun</t>
@@ -429,7 +429,7 @@
     <t>narrative</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:narrative</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.narrative</t>
   </si>
   <si>
     <t>TestPlan.testCase.testRun.script</t>
@@ -444,7 +444,7 @@
     <t>TestPlan.testCase.testRun.script.language</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:language</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script.language</t>
   </si>
   <si>
     <t>TestPlan.testCase.testRun.script.source[x]</t>
@@ -453,7 +453,7 @@
     <t>source[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:source</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script.source</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData</t>
@@ -471,7 +471,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.type</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData.content</t>
@@ -480,13 +480,13 @@
     <t>content</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:content</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.content</t>
   </si>
   <si>
     <t>TestPlan.testCase.testData.source[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:source</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.source</t>
   </si>
   <si>
     <t>TestPlan.testCase.assertion</t>
@@ -501,7 +501,7 @@
     <t>TestPlan.testCase.assertion.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.type</t>
   </si>
   <si>
     <t>TestPlan.testCase.assertion.object</t>
@@ -510,7 +510,7 @@
     <t>object</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:object</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.object</t>
   </si>
   <si>
     <t>TestPlan.testCase.assertion.result</t>
@@ -519,7 +519,7 @@
     <t>result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:result</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion:http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.result</t>
   </si>
 </sst>
 </file>
